--- a/output_data/charts/shares-Madison.xlsx
+++ b/output_data/charts/shares-Madison.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -213,19 +213,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.289719627020471</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.650336219183962</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9434020177093</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.46930406597764</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.284137763945868</c:v>
+                  <c:v>0.006230529596629694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01200764000477304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.006151953241245793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.004432034744461534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +240,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +284,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.67289720006292</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.28914506851618</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.57736080342946</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.86399508916674</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.378185531730193</c:v>
+                  <c:v>31.30218069346758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.97910665295738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.85635186830354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.67992213822198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.21003409800426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +311,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +355,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.289719620695493</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.446926034248907</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.525684403828953</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.445116327898588</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.152329033559989</c:v>
+                  <c:v>2.747663552113692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.85782901370323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.112888340070369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.885928047465768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.379337827900125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +382,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +426,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5233645104720345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4082612720378853</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4121809039152367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.394588457439506</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3324026327858183</c:v>
+                  <c:v>10.38006230315018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.450047996850799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.916948623030327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.163369880964456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.609803697294391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +453,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +497,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.239875348735418</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.072526420634355</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.391879430745734</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.893204891278922</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.336169853024857</c:v>
+                  <c:v>0.9781931495992108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.050672442093317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.064287936229216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.265757925013149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.440411291949989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +524,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +568,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.11838006907167</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.39625363017792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.74715470780387</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.83704008970021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.09715019188429</c:v>
+                  <c:v>1.45171339601471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.386887609591267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.445709011692756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.10177308687304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7756060431757736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +595,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +639,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.45171339601471</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.386887609591267</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.445709011692756</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.10177308687304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7756060431757736</c:v>
+                  <c:v>26.11838006907167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.39625363017792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.74715470780387</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.83704008970021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.09715019188429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +666,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +710,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.9781931495992108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.050672442093317</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.064287936229216</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.265757925013149</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.440411291949989</c:v>
+                  <c:v>7.239875348735418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.072526420634355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.391879430745734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.893204891278922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.336169853024857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +737,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +781,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.38006230315018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.450047996850799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.916948623030327</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.163369880964456</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.609803697294391</c:v>
+                  <c:v>0.5233645104720345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4082612720378853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4121809039152367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.394588457439506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3324026327858183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +808,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +852,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.747663552113692</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.85782901370323</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.112888340070369</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.885928047465768</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.379337827900125</c:v>
+                  <c:v>1.289719620695493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.446926034248907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.525684403828953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.445116327898588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.152329033559989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +879,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +923,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>31.30218069346758</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.97910665295738</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.85635186830354</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38.67992213822198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.21003409800426</c:v>
+                  <c:v>14.67289720006292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.28914506851618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.57736080342946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.86399508916674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.378185531730193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +950,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -994,19 +994,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.006230529596629694</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01200764000477304</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.006151953241245793</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.004432034744461534</c:v>
+                  <c:v>3.289719627020471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.650336219183962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9434020177093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.46930406597764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.284137763945868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,7 +1051,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1123,15 +1122,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1445,19 +1444,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1506,40 +1493,40 @@
         <v>2018</v>
       </c>
       <c r="B2" s="1">
+        <v>0.006230529596629694</v>
+      </c>
+      <c r="C2" s="1">
+        <v>31.30218069346758</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.747663552113692</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10.38006230315018</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.9781931495992108</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.45171339601471</v>
+      </c>
+      <c r="H2" s="1">
+        <v>26.11838006907167</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7.239875348735418</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.5233645104720345</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.289719620695493</v>
+      </c>
+      <c r="L2" s="1">
+        <v>14.67289720006292</v>
+      </c>
+      <c r="M2" s="1">
         <v>3.289719627020471</v>
-      </c>
-      <c r="C2" s="1">
-        <v>14.67289720006292</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.289719620695493</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.5233645104720345</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7.239875348735418</v>
-      </c>
-      <c r="G2" s="1">
-        <v>26.11838006907167</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.45171339601471</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.9781931495992108</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10.38006230315018</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2.747663552113692</v>
-      </c>
-      <c r="L2" s="1">
-        <v>31.30218069346758</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.006230529596629694</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1547,40 +1534,40 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1">
+        <v>0.01200764000477304</v>
+      </c>
+      <c r="C3" s="1">
+        <v>32.97910665295738</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.85782901370323</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.450047996850799</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.050672442093317</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.386887609591267</v>
+      </c>
+      <c r="H3" s="1">
+        <v>25.39625363017792</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7.072526420634355</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.4082612720378853</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.446926034248907</v>
+      </c>
+      <c r="L3" s="1">
+        <v>14.28914506851618</v>
+      </c>
+      <c r="M3" s="1">
         <v>3.650336219183962</v>
-      </c>
-      <c r="C3" s="1">
-        <v>14.28914506851618</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.446926034248907</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.4082612720378853</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7.072526420634355</v>
-      </c>
-      <c r="G3" s="1">
-        <v>25.39625363017792</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.386887609591267</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.050672442093317</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9.450047996850799</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2.85782901370323</v>
-      </c>
-      <c r="L3" s="1">
-        <v>32.97910665295738</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.01200764000477304</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1588,40 +1575,40 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1">
+        <v>0.006151953241245793</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36.85635186830354</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.112888340070369</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.916948623030327</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.064287936229216</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.445709011692756</v>
+      </c>
+      <c r="H4" s="1">
+        <v>21.74715470780387</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6.391879430745734</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.4121809039152367</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.525684403828953</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13.57736080342946</v>
+      </c>
+      <c r="M4" s="1">
         <v>3.9434020177093</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13.57736080342946</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.525684403828953</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.4121809039152367</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6.391879430745734</v>
-      </c>
-      <c r="G4" s="1">
-        <v>21.74715470780387</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.445709011692756</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.064287936229216</v>
-      </c>
-      <c r="J4" s="1">
-        <v>9.916948623030327</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3.112888340070369</v>
-      </c>
-      <c r="L4" s="1">
-        <v>36.85635186830354</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.006151953241245793</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1629,40 +1616,40 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38.67992213822198</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.885928047465768</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.163369880964456</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.265757925013149</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.10177308687304</v>
+      </c>
+      <c r="H5" s="1">
+        <v>19.83704008970021</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.893204891278922</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.394588457439506</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.445116327898588</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.86399508916674</v>
+      </c>
+      <c r="M5" s="1">
         <v>3.46930406597764</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10.86399508916674</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.445116327898588</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.394588457439506</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.893204891278922</v>
-      </c>
-      <c r="G5" s="1">
-        <v>19.83704008970021</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.10177308687304</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.265757925013149</v>
-      </c>
-      <c r="J5" s="1">
-        <v>8.163369880964456</v>
-      </c>
-      <c r="K5" s="1">
-        <v>8.885928047465768</v>
-      </c>
-      <c r="L5" s="1">
-        <v>38.67992213822198</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1670,40 +1657,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0.004432034744461534</v>
+      </c>
+      <c r="C6" s="1">
+        <v>47.21003409800426</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.379337827900125</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.609803697294391</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.440411291949989</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.7756060431757736</v>
+      </c>
+      <c r="H6" s="1">
+        <v>16.09715019188429</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5.336169853024857</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.3324026327858183</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.152329033559989</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9.378185531730193</v>
+      </c>
+      <c r="M6" s="1">
         <v>3.284137763945868</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9.378185531730193</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.152329033559989</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.3324026327858183</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5.336169853024857</v>
-      </c>
-      <c r="G6" s="1">
-        <v>16.09715019188429</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.7756060431757736</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.440411291949989</v>
-      </c>
-      <c r="J6" s="1">
-        <v>7.609803697294391</v>
-      </c>
-      <c r="K6" s="1">
-        <v>7.379337827900125</v>
-      </c>
-      <c r="L6" s="1">
-        <v>47.21003409800426</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.004432034744461534</v>
       </c>
     </row>
   </sheetData>
